--- a/files/teams.xlsx
+++ b/files/teams.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C537"/>
+  <dimension ref="A1:C545"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -377,7 +377,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sarah J</t>
+          <t>Doyle W</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -394,7 +394,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jacob</t>
+          <t>Meaghan</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -411,7 +411,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Elizabeth M</t>
+          <t>Ikechukwu D</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -428,7 +428,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Susan</t>
+          <t>Emma J S</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -445,7 +445,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Dorothy A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -462,7 +462,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Shelly D</t>
+          <t>Huaqiu</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -479,7 +479,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Salman</t>
+          <t>Albert</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Meera A A</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -513,7 +513,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Anthony W</t>
+          <t>Madison G</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -530,7 +530,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Thomas J</t>
+          <t>Adriana</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -547,7 +547,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Ella</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -564,7 +564,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Wendy J</t>
+          <t>Sadie G</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -581,7 +581,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Bailey</t>
+          <t>Sadie R</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -598,7 +598,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Elise</t>
+          <t>Susan</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -615,7 +615,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dorothy A</t>
+          <t>Autumn L</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -632,7 +632,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Ella</t>
+          <t>Justin L</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -649,7 +649,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Doyle W</t>
+          <t>Thea</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -666,7 +666,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Katrina</t>
+          <t>Meera A A</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -683,7 +683,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Paige A</t>
+          <t>Wendy J</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -700,7 +700,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Emma J M</t>
+          <t>Salman</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -717,7 +717,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Autumn L</t>
+          <t>Elizabeth M</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -734,7 +734,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Meaghan</t>
+          <t>Arielle L</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -751,7 +751,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Justin L</t>
+          <t>Liz</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -768,7 +768,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Xiang</t>
+          <t>Christopher</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -785,7 +785,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Alison R</t>
+          <t>Jaime</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -802,7 +802,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Jiayu</t>
+          <t>Finn Huang</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -819,7 +819,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Adriana</t>
+          <t>Madeline R</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -836,7 +836,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Yawen</t>
+          <t>Morgan</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -853,7 +853,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Tal</t>
+          <t>Xiang</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -870,7 +870,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Albert</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -887,7 +887,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Grace A</t>
+          <t>Annika V</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -904,7 +904,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Kate A</t>
+          <t>Yawen</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sadie R</t>
+          <t>Aideen V</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -938,7 +938,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sadie G</t>
+          <t>Michelle A</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -955,7 +955,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Huaqiu</t>
+          <t>Cindy</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -972,7 +972,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Jaime E</t>
+          <t>Zoe C</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -989,7 +989,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Madison G</t>
+          <t>Jaime E</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1006,7 +1006,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Thea</t>
+          <t>Shelly D</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1023,7 +1023,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Aideen V</t>
+          <t>Gwendolyn V</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1040,7 +1040,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Morgan</t>
+          <t>Thomas J</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1057,7 +1057,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Jaime M</t>
+          <t>Hannah</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1074,7 +1074,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Cindy</t>
+          <t>Grace A</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1091,7 +1091,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Hannah</t>
+          <t>Maeghan B</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1108,7 +1108,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Jaime</t>
+          <t>Anthony W</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1125,7 +1125,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Emma J S</t>
+          <t>Sarah J</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1142,7 +1142,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Liv</t>
+          <t>Katrina</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1159,7 +1159,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Jiayu</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1176,7 +1176,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Michelle A</t>
+          <t>Catie</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1193,7 +1193,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Madeline R</t>
+          <t>Sally I</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1210,7 +1210,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Elaine</t>
+          <t>Annalise M</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1227,7 +1227,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Elliott</t>
+          <t>Emma J M</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1244,7 +1244,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Annalise M</t>
+          <t>Liv</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1261,7 +1261,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Gabriella</t>
+          <t>Jaime M</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1278,7 +1278,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Finn Huang</t>
+          <t>Kate A</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1295,7 +1295,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Chintushig</t>
+          <t>Bailey</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Bijan J</t>
+          <t>Elliott</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1329,7 +1329,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Maeghan B</t>
+          <t>Chintushig</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1346,7 +1346,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Paige A</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1363,7 +1363,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Ikechukwu D</t>
+          <t>Elise</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1380,7 +1380,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Kaethe</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1397,7 +1397,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Catie</t>
+          <t>Bijan J</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1414,7 +1414,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Gwendolyn V</t>
+          <t>Elaine</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1431,7 +1431,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sally I</t>
+          <t>Alison R</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1448,7 +1448,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Liz</t>
+          <t>Kaethe</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1465,7 +1465,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Arielle L</t>
+          <t>Gabriella</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1482,7 +1482,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Annika V</t>
+          <t>Andre</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1499,7 +1499,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Zoe C</t>
+          <t>Tal</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1516,24 +1516,24 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Thomas J</t>
+          <t>Jacob</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Week 2</t>
+          <t>Week 1</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Chintushig</t>
+          <t>Shelly D</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1550,7 +1550,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Jaime E</t>
+          <t>Aideen V</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -1567,7 +1567,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Madeline R</t>
+          <t>Salman</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1584,7 +1584,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Wendy J</t>
+          <t>Adriana</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -1601,7 +1601,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Sadie R</t>
+          <t>Bijan J</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -1618,7 +1618,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Elaine</t>
+          <t>Madeline R</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -1635,7 +1635,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Adriana</t>
+          <t>Sally I</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -1652,12 +1652,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Meaghan</t>
+          <t>Jiayu</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1669,7 +1669,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Shelly D</t>
+          <t>Autumn L</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -1686,7 +1686,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Tal</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -1703,7 +1703,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Paige A</t>
+          <t>Gwendolyn V</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -1720,7 +1720,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Xiang</t>
+          <t>Christopher</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Annalise M</t>
+          <t>Grace A</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -1754,7 +1754,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Elise</t>
+          <t>Meera A A</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -1771,7 +1771,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Aideen V</t>
+          <t>Jacob</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -1788,12 +1788,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Gabriella</t>
+          <t>Ikechukwu D</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1805,7 +1805,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Alison R</t>
+          <t>Emma J M</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -1822,7 +1822,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Arielle L</t>
+          <t>Alison R</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -1839,7 +1839,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Yawen</t>
+          <t>Andre</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -1856,7 +1856,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Doyle W</t>
+          <t>Albert</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -1873,7 +1873,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Liz</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -1890,7 +1890,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Kate A</t>
+          <t>Finn Huang</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -1907,7 +1907,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Morgan</t>
+          <t>Yawen</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -1924,12 +1924,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Anthony W</t>
+          <t>Sadie G</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -1941,7 +1941,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Ikechukwu D</t>
+          <t>Elaine</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -1958,7 +1958,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Sadie G</t>
+          <t>Jaime E</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -1975,7 +1975,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Huaqiu</t>
+          <t>Annalise M</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -1992,7 +1992,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Jaime</t>
+          <t>Meaghan</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2009,7 +2009,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Jacob</t>
+          <t>Thomas J</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2026,7 +2026,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Susan</t>
+          <t>Katrina</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2043,7 +2043,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Dorothy A</t>
+          <t>Kate A</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2060,12 +2060,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Bailey</t>
+          <t>Huaqiu</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2077,7 +2077,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Annika V</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2094,7 +2094,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Hannah</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2111,7 +2111,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Bijan J</t>
+          <t>Arielle L</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2128,7 +2128,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Salman</t>
+          <t>Chintushig</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2145,7 +2145,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Ella</t>
+          <t>Maeghan B</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2162,7 +2162,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Emma J S</t>
+          <t>Elizabeth M</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2179,7 +2179,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Grace A</t>
+          <t>Justin L</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2196,12 +2196,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Kaethe</t>
+          <t>Annika V</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T5</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2213,7 +2213,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Katrina</t>
+          <t>Anthony W</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2230,7 +2230,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Sally I</t>
+          <t>Catie</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2247,7 +2247,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Cindy</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2264,7 +2264,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Elliott</t>
+          <t>Ella</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -2281,7 +2281,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Sarah J</t>
+          <t>Thea</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -2298,7 +2298,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Hannah</t>
+          <t>Sarah J</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -2315,7 +2315,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Michelle A</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -2332,12 +2332,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Jaime M</t>
+          <t>Doyle W</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>T7</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2349,7 +2349,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Jiayu</t>
+          <t>Susan</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -2366,7 +2366,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Autumn L</t>
+          <t>Michelle A</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -2383,7 +2383,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Albert</t>
+          <t>Morgan</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -2400,7 +2400,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Meera A A</t>
+          <t>Zoe C</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -2417,7 +2417,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Justin L</t>
+          <t>Xiang</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -2434,7 +2434,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Finn Huang</t>
+          <t>Elliott</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -2451,7 +2451,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Thea</t>
+          <t>Jaime M</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -2468,12 +2468,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Zoe C</t>
+          <t>Bailey</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2485,7 +2485,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Madison G</t>
+          <t>Kaethe</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -2502,7 +2502,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Tal</t>
+          <t>Liv</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -2519,7 +2519,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Cindy</t>
+          <t>Gabriella</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -2536,7 +2536,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Liv</t>
+          <t>Wendy J</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -2553,7 +2553,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Liz</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -2570,7 +2570,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Catie</t>
+          <t>Jaime</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -2587,7 +2587,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Gwendolyn V</t>
+          <t>Emma J S</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2604,12 +2604,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Maeghan B</t>
+          <t>Paige A</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>T9</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2621,7 +2621,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Emma J M</t>
+          <t>Dorothy A</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -2638,7 +2638,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Elizabeth M</t>
+          <t>Elise</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -2655,41 +2655,41 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Sarah J</t>
+          <t>Madison G</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Week 3</t>
+          <t>Week 2</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Jaime</t>
+          <t>Sadie R</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Week 3</t>
+          <t>Week 2</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Jaime M</t>
+          <t>Sally I</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -2706,7 +2706,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Alison R</t>
+          <t>Jacob</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -2723,7 +2723,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Elliott</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -2740,7 +2740,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Kaethe</t>
+          <t>Meera A A</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -2757,7 +2757,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Wendy J</t>
+          <t>Maeghan B</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -2774,7 +2774,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Jacob</t>
+          <t>Yawen</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -2791,12 +2791,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Finn Huang</t>
+          <t>Salman</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2808,12 +2808,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Elaine</t>
+          <t>Liz</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -2825,7 +2825,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Meaghan</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -2842,7 +2842,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Morgan</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -2859,7 +2859,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Emma J M</t>
+          <t>Elizabeth M</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -2876,7 +2876,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Katrina</t>
+          <t>Jaime M</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -2893,7 +2893,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Tal</t>
+          <t>Jaime E</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -2910,7 +2910,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Hannah</t>
+          <t>Andre</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -2927,12 +2927,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Meaghan</t>
+          <t>Gabriella</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -2944,12 +2944,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Dorothy A</t>
+          <t>Xiang</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -2961,7 +2961,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Albert</t>
+          <t>Liv</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -2978,7 +2978,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Arielle L</t>
+          <t>Elise</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -2995,7 +2995,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Doyle W</t>
+          <t>Bijan J</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -3012,7 +3012,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Thea</t>
+          <t>Hannah</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -3029,7 +3029,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Aideen V</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3046,7 +3046,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Grace A</t>
+          <t>Thomas J</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -3063,12 +3063,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Huaqiu</t>
+          <t>Justin L</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3080,12 +3080,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Gabriella</t>
+          <t>Adriana</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3097,7 +3097,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Xiang</t>
+          <t>Kate A</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -3114,7 +3114,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Anthony W</t>
+          <t>Autumn L</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -3131,7 +3131,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Catie</t>
+          <t>Doyle W</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -3148,7 +3148,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Aideen V</t>
+          <t>Elliott</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -3165,7 +3165,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Jiayu</t>
+          <t>Zoe C</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -3182,7 +3182,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Ella</t>
+          <t>Jiayu</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -3199,12 +3199,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Paige A</t>
+          <t>Tal</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3216,12 +3216,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Morgan</t>
+          <t>Anthony W</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3233,7 +3233,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Gwendolyn V</t>
+          <t>Elaine</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -3250,7 +3250,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Sally I</t>
+          <t>Alison R</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -3267,7 +3267,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Michelle A</t>
+          <t>Dorothy A</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -3284,7 +3284,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Meera A A</t>
+          <t>Madison G</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -3301,7 +3301,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Justin L</t>
+          <t>Jaime</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -3318,7 +3318,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Maeghan B</t>
+          <t>Catie</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -3335,12 +3335,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Finn Huang</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T5</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3352,12 +3352,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Zoe C</t>
+          <t>Bailey</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T5</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3369,7 +3369,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Annalise M</t>
+          <t>Chintushig</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -3386,7 +3386,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Kate A</t>
+          <t>Annalise M</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -3403,7 +3403,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Madeline R</t>
+          <t>Thea</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -3420,7 +3420,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Shelly D</t>
+          <t>Annika V</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -3437,7 +3437,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Bijan J</t>
+          <t>Sadie G</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -3454,7 +3454,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Chintushig</t>
+          <t>Grace A</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -3471,12 +3471,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Jaime E</t>
+          <t>Emma J S</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>T7</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -3488,12 +3488,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Susan</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>T7</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -3505,7 +3505,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Emma J S</t>
+          <t>Kaethe</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -3522,7 +3522,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Bailey</t>
+          <t>Arielle L</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -3539,7 +3539,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Thomas J</t>
+          <t>Sarah J</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -3556,7 +3556,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Sadie G</t>
+          <t>Sadie R</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -3573,7 +3573,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Sadie R</t>
+          <t>Susan</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -3590,7 +3590,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Yawen</t>
+          <t>Ella</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -3607,12 +3607,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Annika V</t>
+          <t>Katrina</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3624,12 +3624,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Cindy</t>
+          <t>Shelly D</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -3641,7 +3641,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Liv</t>
+          <t>Albert</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -3658,7 +3658,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Adriana</t>
+          <t>Wendy J</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -3675,7 +3675,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Madison G</t>
+          <t>Michelle A</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -3692,7 +3692,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Liz</t>
+          <t>Huaqiu</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -3709,7 +3709,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Autumn L</t>
+          <t>Paige A</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -3726,7 +3726,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Salman</t>
+          <t>Ikechukwu D</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -3743,12 +3743,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Elizabeth M</t>
+          <t>Cindy</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>T9</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3760,12 +3760,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Elise</t>
+          <t>Gwendolyn V</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>T9</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -3777,7 +3777,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Ikechukwu D</t>
+          <t>Emma J M</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -3794,58 +3794,58 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Elizabeth M</t>
+          <t>Christopher</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Week 4</t>
+          <t>Week 3</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Kate A</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Week 4</t>
+          <t>Week 3</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Tal</t>
+          <t>Madeline R</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Week 4</t>
+          <t>Week 3</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Jiayu</t>
+          <t>Elliott</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -3862,7 +3862,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Justin L</t>
+          <t>Hannah</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -3879,7 +3879,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Cindy</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -3896,7 +3896,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Gabriella</t>
+          <t>Salman</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -3913,7 +3913,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Anthony W</t>
+          <t>Christopher</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -3930,12 +3930,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Emma J M</t>
+          <t>Finn Huang</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -3947,12 +3947,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Morgan</t>
+          <t>Paige A</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -3964,12 +3964,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Gwendolyn V</t>
+          <t>Xiang</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -3981,7 +3981,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Finn Huang</t>
+          <t>Jaime E</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -3998,7 +3998,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Liz</t>
+          <t>Liv</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -4015,7 +4015,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Madison G</t>
+          <t>Annalise M</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -4032,7 +4032,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Sarah J</t>
+          <t>Aideen V</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -4049,7 +4049,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Meaghan</t>
+          <t>Sarah J</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -4066,12 +4066,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Sadie R</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -4083,12 +4083,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Liv</t>
+          <t>Zoe C</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4100,12 +4100,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Yawen</t>
+          <t>Adriana</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4117,7 +4117,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Thea</t>
+          <t>Jiayu</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -4134,7 +4134,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Maeghan B</t>
+          <t>Cindy</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -4151,7 +4151,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Salman</t>
+          <t>Andre</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -4168,7 +4168,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Xiang</t>
+          <t>Morgan</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -4185,7 +4185,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Jaime M</t>
+          <t>Elaine</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -4202,12 +4202,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Huaqiu</t>
+          <t>Emma J M</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4219,12 +4219,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Anthony W</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4236,12 +4236,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Paige A</t>
+          <t>Katrina</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -4253,7 +4253,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Jaime</t>
+          <t>Arielle L</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -4270,7 +4270,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Elaine</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -4287,7 +4287,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Doyle W</t>
+          <t>Elise</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -4304,7 +4304,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Annalise M</t>
+          <t>Maeghan B</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -4321,7 +4321,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Ikechukwu D</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -4338,12 +4338,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Bijan J</t>
+          <t>Yawen</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -4355,12 +4355,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Bailey</t>
+          <t>Meera A A</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -4372,12 +4372,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Elizabeth M</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -4389,7 +4389,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Emma J S</t>
+          <t>Kaethe</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -4406,7 +4406,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Zoe C</t>
+          <t>Annika V</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -4423,7 +4423,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Catie</t>
+          <t>Gwendolyn V</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -4440,7 +4440,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Michelle A</t>
+          <t>Thomas J</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -4457,7 +4457,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Katrina</t>
+          <t>Huaqiu</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -4474,12 +4474,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Susan</t>
+          <t>Grace A</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T5</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -4491,12 +4491,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Elise</t>
+          <t>Shelly D</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T5</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -4508,12 +4508,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Ikechukwu D</t>
+          <t>Doyle W</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T5</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -4542,7 +4542,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Albert</t>
+          <t>Justin L</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -4559,7 +4559,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Meera A A</t>
+          <t>Tal</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -4576,7 +4576,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Sadie G</t>
+          <t>Sally I</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -4593,7 +4593,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Elliott</t>
+          <t>Jaime M</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -4610,12 +4610,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Adriana</t>
+          <t>Susan</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>T7</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -4627,12 +4627,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Hannah</t>
+          <t>Sadie R</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>T7</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -4644,12 +4644,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Chintushig</t>
+          <t>Dorothy A</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>T7</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -4661,7 +4661,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Alison R</t>
+          <t>Thea</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -4678,7 +4678,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Shelly D</t>
+          <t>Sadie G</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -4695,7 +4695,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Arielle L</t>
+          <t>Albert</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -4712,7 +4712,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Jacob</t>
+          <t>Madeline R</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -4729,7 +4729,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Kaethe</t>
+          <t>Wendy J</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -4746,12 +4746,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Jaime E</t>
+          <t>Michelle A</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -4763,12 +4763,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Dorothy A</t>
+          <t>Alison R</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -4797,7 +4797,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Wendy J</t>
+          <t>Madison G</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -4814,7 +4814,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Thomas J</t>
+          <t>Catie</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -4831,7 +4831,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Sally I</t>
+          <t>Bijan J</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -4848,7 +4848,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Grace A</t>
+          <t>Chintushig</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -4865,7 +4865,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Bailey</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -4882,12 +4882,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Annika V</t>
+          <t>Liz</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>T9</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -4899,12 +4899,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Aideen V</t>
+          <t>Meaghan</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>T9</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -4916,12 +4916,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Madeline R</t>
+          <t>Gabriella</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>T9</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -4933,75 +4933,75 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Liv</t>
+          <t>Kate A</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Week 5</t>
+          <t>Week 4</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Sally I</t>
+          <t>Emma J S</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Week 5</t>
+          <t>Week 4</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Catie</t>
+          <t>Jaime</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Week 5</t>
+          <t>Week 4</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Doyle W</t>
+          <t>Jacob</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Week 5</t>
+          <t>Week 4</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Dorothy A</t>
+          <t>Susan</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -5018,7 +5018,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Emma J M</t>
+          <t>Xiang</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -5035,7 +5035,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Tal</t>
+          <t>Jaime M</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -5052,7 +5052,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Jaime M</t>
+          <t>Ella</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -5069,12 +5069,12 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Albert</t>
+          <t>Madison G</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -5086,12 +5086,12 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Gwendolyn V</t>
+          <t>Sadie R</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -5103,12 +5103,12 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Justin L</t>
+          <t>Grace A</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -5120,12 +5120,12 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Katrina</t>
+          <t>Jaime</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -5137,7 +5137,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Anthony W</t>
+          <t>Gwendolyn V</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -5154,7 +5154,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Ella</t>
+          <t>Bailey</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -5171,7 +5171,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Thea</t>
+          <t>Sarah J</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -5188,7 +5188,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Sadie R</t>
+          <t>Chintushig</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -5205,12 +5205,12 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Paige A</t>
+          <t>Cindy</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -5222,12 +5222,12 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Michelle A</t>
+          <t>Andre</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -5239,12 +5239,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Elliott</t>
+          <t>Meaghan</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -5256,12 +5256,12 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Cindy</t>
+          <t>Madeline R</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -5273,7 +5273,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Meera A A</t>
+          <t>Anthony W</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -5290,7 +5290,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Madeline R</t>
+          <t>Gabriella</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -5307,7 +5307,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Elaine</t>
+          <t>Elliott</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -5324,7 +5324,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Meaghan</t>
+          <t>Paige A</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -5341,12 +5341,12 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Sadie G</t>
+          <t>Liv</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -5358,12 +5358,12 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Jaime E</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -5375,12 +5375,12 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Emma J S</t>
+          <t>Kate A</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -5392,12 +5392,12 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Elizabeth M</t>
+          <t>Sally I</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -5409,7 +5409,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Elise</t>
+          <t>Morgan</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -5426,7 +5426,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Kaethe</t>
+          <t>Dorothy A</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -5443,7 +5443,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Susan</t>
+          <t>Emma J M</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -5460,7 +5460,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Arielle L</t>
+          <t>Ikechukwu D</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -5477,12 +5477,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Xiang</t>
+          <t>Jaime E</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -5494,12 +5494,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Annika V</t>
+          <t>Elizabeth M</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -5511,12 +5511,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Jiayu</t>
+          <t>Elaine</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -5528,12 +5528,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Bailey</t>
+          <t>Adriana</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -5545,7 +5545,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Annalise M</t>
+          <t>Maeghan B</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -5562,7 +5562,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Jaime</t>
+          <t>Meera A A</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -5579,7 +5579,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Aideen V</t>
+          <t>Huaqiu</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -5596,7 +5596,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Madison G</t>
+          <t>Kaethe</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -5613,12 +5613,12 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Maeghan B</t>
+          <t>Elise</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T5</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -5630,12 +5630,12 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Adriana</t>
+          <t>Katrina</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T5</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -5647,12 +5647,12 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Kate A</t>
+          <t>Finn Huang</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T5</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -5664,12 +5664,12 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Autumn L</t>
+          <t>Bijan J</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T5</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -5681,7 +5681,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Ikechukwu D</t>
+          <t>Yawen</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -5698,7 +5698,7 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Wendy J</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -5715,7 +5715,7 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Alison R</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
@@ -5732,7 +5732,7 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Salman</t>
+          <t>Albert</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
@@ -5749,12 +5749,12 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Chintushig</t>
+          <t>Michelle A</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>T7</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -5766,12 +5766,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Shelly D</t>
+          <t>Annika V</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>T7</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -5783,12 +5783,12 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Tal</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>T7</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -5800,12 +5800,12 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Yawen</t>
+          <t>Sadie G</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>T7</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -5834,7 +5834,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Hannah</t>
+          <t>Shelly D</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -5851,7 +5851,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Liz</t>
+          <t>Justin L</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -5868,7 +5868,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Grace A</t>
+          <t>Doyle W</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -5885,12 +5885,12 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Zoe C</t>
+          <t>Thea</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -5902,12 +5902,12 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Finn Huang</t>
+          <t>Catie</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -5919,12 +5919,12 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Gabriella</t>
+          <t>Jacob</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -5936,12 +5936,12 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Sarah J</t>
+          <t>Zoe C</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -5953,7 +5953,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Wendy J</t>
+          <t>Aideen V</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -5970,7 +5970,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Huaqiu</t>
+          <t>Annalise M</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -5987,7 +5987,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Bijan J</t>
+          <t>Autumn L</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -6004,7 +6004,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Thomas J</t>
+          <t>Liz</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -6021,12 +6021,12 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Arielle L</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>T9</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -6038,12 +6038,12 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Jacob</t>
+          <t>Jiayu</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>T9</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -6055,12 +6055,12 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>Morgan</t>
+          <t>Emma J S</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>T9</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -6072,92 +6072,92 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Cindy</t>
+          <t>Alison R</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Week 6</t>
+          <t>Week 5</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Hannah</t>
+          <t>Thomas J</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Week 6</t>
+          <t>Week 5</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Finn Huang</t>
+          <t>Salman</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Week 6</t>
+          <t>Week 5</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Jiayu</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Week 6</t>
+          <t>Week 5</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Doyle W</t>
+          <t>Hannah</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Week 6</t>
+          <t>Week 5</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Maeghan B</t>
+          <t>Meaghan</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -6174,7 +6174,7 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Zoe C</t>
+          <t>Sadie R</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -6191,7 +6191,7 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Paige A</t>
+          <t>Autumn L</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -6208,12 +6208,12 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Ikechukwu D</t>
+          <t>Katrina</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -6225,12 +6225,12 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Emma J S</t>
+          <t>Elliott</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -6242,12 +6242,12 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Annika V</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -6259,12 +6259,12 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Ella</t>
+          <t>Elaine</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -6276,12 +6276,12 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Kate A</t>
+          <t>Bijan J</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -6293,7 +6293,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Dorothy A</t>
+          <t>Jacob</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -6310,7 +6310,7 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Bailey</t>
+          <t>Jiayu</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -6327,7 +6327,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Autumn L</t>
+          <t>Annika V</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -6344,12 +6344,12 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Emma J M</t>
+          <t>Emma J S</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -6361,12 +6361,12 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Yawen</t>
+          <t>Gwendolyn V</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -6378,12 +6378,12 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Tal</t>
+          <t>Catie</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -6395,12 +6395,12 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Morgan</t>
+          <t>Thomas J</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -6412,12 +6412,12 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Elise</t>
+          <t>Ikechukwu D</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -6429,7 +6429,7 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Jacob</t>
+          <t>Xiang</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -6446,7 +6446,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Thea</t>
+          <t>Cindy</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -6463,7 +6463,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Madison G</t>
+          <t>Kate A</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -6480,12 +6480,12 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Elaine</t>
+          <t>Zoe C</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -6497,12 +6497,12 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Grace A</t>
+          <t>Yawen</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -6514,12 +6514,12 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Sarah J</t>
+          <t>Anthony W</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -6531,12 +6531,12 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Thomas J</t>
+          <t>Salman</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -6548,12 +6548,12 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Liz</t>
+          <t>Tal</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -6565,7 +6565,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Kaethe</t>
+          <t>Arielle L</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -6582,7 +6582,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Gwendolyn V</t>
+          <t>Elise</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -6599,7 +6599,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Xiang</t>
+          <t>Michelle A</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -6616,12 +6616,12 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Adriana</t>
+          <t>Elizabeth M</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -6633,12 +6633,12 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Sadie R</t>
+          <t>Justin L</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -6650,12 +6650,12 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Anthony W</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -6667,12 +6667,12 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Jaime M</t>
+          <t>Paige A</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -6684,12 +6684,12 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Arielle L</t>
+          <t>Bailey</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -6701,7 +6701,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Catie</t>
+          <t>Madeline R</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -6718,7 +6718,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Wendy J</t>
+          <t>Shelly D</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -6735,7 +6735,7 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Jaime E</t>
+          <t>Adriana</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -6752,12 +6752,12 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Gabriella</t>
+          <t>Morgan</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T5</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -6769,12 +6769,12 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Salman</t>
+          <t>Susan</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T5</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -6786,12 +6786,12 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Elizabeth M</t>
+          <t>Kaethe</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T5</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -6803,12 +6803,12 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Huaqiu</t>
+          <t>Jaime</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T5</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -6820,12 +6820,12 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Bijan J</t>
+          <t>Liv</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T5</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -6837,7 +6837,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Michelle A</t>
+          <t>Ella</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -6854,7 +6854,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Meera A A</t>
+          <t>Jaime E</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -6871,7 +6871,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Andre</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -6888,12 +6888,12 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Annalise M</t>
+          <t>Jaime M</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>T7</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -6905,12 +6905,12 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Finn Huang</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>T7</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -6922,12 +6922,12 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Katrina</t>
+          <t>Sally I</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>T7</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -6939,12 +6939,12 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Maeghan B</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>T7</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -6956,12 +6956,12 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Susan</t>
+          <t>Thea</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>T7</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -6973,7 +6973,7 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Madeline R</t>
+          <t>Alison R</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -6990,7 +6990,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Shelly D</t>
+          <t>Sarah J</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -7007,7 +7007,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Meaghan</t>
+          <t>Emma J M</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -7024,12 +7024,12 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Justin L</t>
+          <t>Christopher</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -7041,12 +7041,12 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Elliott</t>
+          <t>Madison G</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -7058,12 +7058,12 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Sally I</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -7075,12 +7075,12 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Alison R</t>
+          <t>Chintushig</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -7092,12 +7092,12 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Liv</t>
+          <t>Dorothy A</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -7109,7 +7109,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Chintushig</t>
+          <t>Albert</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -7126,7 +7126,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Aideen V</t>
+          <t>Annalise M</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -7143,7 +7143,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Jaime</t>
+          <t>Wendy J</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -7160,12 +7160,12 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Sadie G</t>
+          <t>Huaqiu</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>T9</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -7177,12 +7177,12 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Albert</t>
+          <t>Aideen V</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>T9</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -7194,12 +7194,12 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Liz</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>T9</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -7211,109 +7211,109 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Elaine</t>
+          <t>Grace A</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Week 7</t>
+          <t>Week 6</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Autumn L</t>
+          <t>Hannah</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Week 7</t>
+          <t>Week 6</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Katrina</t>
+          <t>Meera A A</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>Week 7</t>
+          <t>Week 6</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Elliott</t>
+          <t>Doyle W</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>Week 7</t>
+          <t>Week 6</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Elizabeth M</t>
+          <t>Gabriella</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Week 7</t>
+          <t>Week 6</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Paige A</t>
+          <t>Sadie G</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Week 7</t>
+          <t>Week 6</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Jaime M</t>
+          <t>Madison G</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -7330,7 +7330,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Yawen</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -7347,12 +7347,12 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Dorothy A</t>
+          <t>Annika V</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -7364,12 +7364,12 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Sadie R</t>
+          <t>Doyle W</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -7381,12 +7381,12 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Anthony W</t>
+          <t>Gwendolyn V</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -7398,12 +7398,12 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Huaqiu</t>
+          <t>Grace A</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -7415,12 +7415,12 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Wendy J</t>
+          <t>Thomas J</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -7432,12 +7432,12 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Shelly D</t>
+          <t>Arielle L</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -7449,7 +7449,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Madison G</t>
+          <t>Michelle A</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -7466,7 +7466,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Albert</t>
+          <t>Liz</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -7483,12 +7483,12 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Michelle A</t>
+          <t>Christopher</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -7500,12 +7500,12 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Meera A A</t>
+          <t>Katrina</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -7517,12 +7517,12 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Andre</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -7534,12 +7534,12 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Kaethe</t>
+          <t>Meera A A</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -7551,12 +7551,12 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Kate A</t>
+          <t>Shelly D</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -7568,12 +7568,12 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Alison R</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -7585,7 +7585,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Arielle L</t>
+          <t>Hannah</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -7602,7 +7602,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Justin L</t>
+          <t>Dorothy A</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -7619,12 +7619,12 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Meaghan</t>
+          <t>Yawen</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -7636,12 +7636,12 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Bijan J</t>
+          <t>Albert</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -7653,12 +7653,12 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Tal</t>
+          <t>Elise</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -7670,12 +7670,12 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Zoe C</t>
+          <t>Salman</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -7687,12 +7687,12 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Elise</t>
+          <t>Huaqiu</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -7704,12 +7704,12 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Liv</t>
+          <t>Kaethe</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -7721,7 +7721,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Alison R</t>
+          <t>Xiang</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -7738,7 +7738,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Jiayu</t>
+          <t>Thea</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -7755,12 +7755,12 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Madeline R</t>
+          <t>Jacob</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -7772,12 +7772,12 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Adriana</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -7789,12 +7789,12 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Gwendolyn V</t>
+          <t>Zoe C</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -7806,12 +7806,12 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Ella</t>
+          <t>Catie</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
@@ -7823,12 +7823,12 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Bailey</t>
+          <t>Ella</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
@@ -7840,12 +7840,12 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Aideen V</t>
+          <t>Morgan</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -7857,7 +7857,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Thomas J</t>
+          <t>Jaime E</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
@@ -7874,7 +7874,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Liv</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -7891,12 +7891,12 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Sadie G</t>
+          <t>Autumn L</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T5</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
@@ -7908,12 +7908,12 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Salman</t>
+          <t>Gabriella</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T5</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
@@ -7925,12 +7925,12 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Chintushig</t>
+          <t>Jiayu</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T5</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
@@ -7942,12 +7942,12 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Grace A</t>
+          <t>Paige A</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T5</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
@@ -7959,12 +7959,12 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Cindy</t>
+          <t>Tal</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T5</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -7976,12 +7976,12 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Jaime E</t>
+          <t>Emma J M</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T5</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -7993,7 +7993,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Morgan</t>
+          <t>Bailey</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -8010,7 +8010,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Susan</t>
+          <t>Madeline R</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -8027,12 +8027,12 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Finn Huang</t>
+          <t>Emma J S</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>T7</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -8044,12 +8044,12 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Maeghan B</t>
+          <t>Wendy J</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>T7</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
@@ -8061,12 +8061,12 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Jacob</t>
+          <t>Finn Huang</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>T7</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
@@ -8078,12 +8078,12 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Catie</t>
+          <t>Bijan J</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>T7</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -8095,12 +8095,12 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Liz</t>
+          <t>Elliott</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>T7</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -8112,12 +8112,12 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Thea</t>
+          <t>Anthony W</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>T7</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
@@ -8129,7 +8129,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Emma J M</t>
+          <t>Chintushig</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -8146,7 +8146,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Xiang</t>
+          <t>Ikechukwu D</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -8163,12 +8163,12 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Ikechukwu D</t>
+          <t>Sally I</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
@@ -8180,12 +8180,12 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Sally I</t>
+          <t>Susan</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
@@ -8197,12 +8197,12 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Jaime</t>
+          <t>Jaime M</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -8219,7 +8219,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -8231,12 +8231,12 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Annalise M</t>
+          <t>Elizabeth M</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -8248,12 +8248,12 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Doyle W</t>
+          <t>Adriana</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -8265,7 +8265,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Hannah</t>
+          <t>Justin L</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -8282,7 +8282,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Annika V</t>
+          <t>Sadie R</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -8299,12 +8299,12 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Kate A</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>T9</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
@@ -8316,12 +8316,12 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Emma J S</t>
+          <t>Annalise M</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>T9</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -8333,12 +8333,12 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Gabriella</t>
+          <t>Aideen V</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>T9</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -8350,126 +8350,126 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Emma J M</t>
+          <t>Cindy</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Week 8</t>
+          <t>Week 7</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Thomas J</t>
+          <t>Maeghan B</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Week 8</t>
+          <t>Week 7</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Shelly D</t>
+          <t>Jaime</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Week 8</t>
+          <t>Week 7</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Kaethe</t>
+          <t>Elaine</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Week 8</t>
+          <t>Week 7</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Sally I</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Week 8</t>
+          <t>Week 7</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Madison G</t>
+          <t>Sadie G</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Week 8</t>
+          <t>Week 7</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Meera A A</t>
+          <t>Meaghan</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T9</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Week 8</t>
+          <t>Week 7</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Arielle L</t>
+          <t>Bailey</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -8486,12 +8486,12 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Elizabeth M</t>
+          <t>Yawen</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
@@ -8503,12 +8503,12 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Wendy J</t>
+          <t>Liv</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
@@ -8520,12 +8520,12 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Emma J S</t>
+          <t>Jacob</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
@@ -8537,12 +8537,12 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Xiang</t>
+          <t>Paige A</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -8554,12 +8554,12 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Meaghan</t>
+          <t>Zoe C</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -8571,12 +8571,12 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Sadie R</t>
+          <t>Albert</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -8588,12 +8588,12 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Autumn L</t>
+          <t>Dorothy A</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
@@ -8605,7 +8605,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Salman</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -8622,12 +8622,12 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Ella</t>
+          <t>Wendy J</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
@@ -8639,12 +8639,12 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Justin L</t>
+          <t>Bijan J</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
@@ -8656,12 +8656,12 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Ikechukwu D</t>
+          <t>Christopher</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
@@ -8673,12 +8673,12 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Grace A</t>
+          <t>Maeghan B</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -8690,12 +8690,12 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Dorothy A</t>
+          <t>Catie</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -8707,12 +8707,12 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Annika V</t>
+          <t>Thea</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -8724,12 +8724,12 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Jacob</t>
+          <t>Tal</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>T3</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -8741,7 +8741,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Bailey</t>
+          <t>Shelly D</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -8758,12 +8758,12 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Salman</t>
+          <t>Annika V</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -8775,12 +8775,12 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Annalise M</t>
+          <t>Katrina</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -8792,12 +8792,12 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Sadie G</t>
+          <t>Doyle W</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -8809,12 +8809,12 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Christopher</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -8826,12 +8826,12 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Liz</t>
+          <t>Emma J S</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -8843,12 +8843,12 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Hannah</t>
+          <t>Jaime</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -8860,12 +8860,12 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Jaime</t>
+          <t>Jaime M</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>T4</t>
+          <t>T3</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -8877,7 +8877,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Anthony W</t>
+          <t>Autumn L</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -8894,12 +8894,12 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Madeline R</t>
+          <t>Meera A A</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -8911,12 +8911,12 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Finn Huang</t>
+          <t>Susan</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -8928,12 +8928,12 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Gwendolyn V</t>
+          <t>Ella</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -8945,12 +8945,12 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Kate A</t>
+          <t>Sarah J</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C506" t="inlineStr">
@@ -8962,12 +8962,12 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Thea</t>
+          <t>Finn Huang</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C507" t="inlineStr">
@@ -8979,12 +8979,12 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Michelle A</t>
+          <t>Huaqiu</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -8996,12 +8996,12 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Huaqiu</t>
+          <t>Meaghan</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>T5</t>
+          <t>T4</t>
         </is>
       </c>
       <c r="C509" t="inlineStr">
@@ -9013,7 +9013,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Katrina</t>
+          <t>Gabriella</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -9030,12 +9030,12 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Morgan</t>
+          <t>Xiang</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T5</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -9047,12 +9047,12 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Jiayu</t>
+          <t>Michelle A</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T5</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -9064,12 +9064,12 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Zoe C</t>
+          <t>Madison G</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T5</t>
         </is>
       </c>
       <c r="C513" t="inlineStr">
@@ -9081,12 +9081,12 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Maeghan B</t>
+          <t>Adriana</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T5</t>
         </is>
       </c>
       <c r="C514" t="inlineStr">
@@ -9098,12 +9098,12 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Chintushig</t>
+          <t>Sadie R</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T5</t>
         </is>
       </c>
       <c r="C515" t="inlineStr">
@@ -9115,12 +9115,12 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Albert</t>
+          <t>Jiayu</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T5</t>
         </is>
       </c>
       <c r="C516" t="inlineStr">
@@ -9132,12 +9132,12 @@
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Cindy</t>
+          <t>Andre</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>T6</t>
+          <t>T5</t>
         </is>
       </c>
       <c r="C517" t="inlineStr">
@@ -9149,7 +9149,7 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Catie</t>
+          <t>Alison R</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
@@ -9166,12 +9166,12 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Liv</t>
+          <t>Liz</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>T7</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -9183,12 +9183,12 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Jaime E</t>
+          <t>Annalise M</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>T7</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="C520" t="inlineStr">
@@ -9200,12 +9200,12 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Paige A</t>
+          <t>Kate A</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>T7</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="C521" t="inlineStr">
@@ -9217,12 +9217,12 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Elliott</t>
+          <t>Emma J M</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>T7</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="C522" t="inlineStr">
@@ -9234,12 +9234,12 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Jordan</t>
+          <t>Elliott</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
         <is>
-          <t>T7</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="C523" t="inlineStr">
@@ -9251,12 +9251,12 @@
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>Jaime M</t>
+          <t>Sally I</t>
         </is>
       </c>
       <c r="B524" t="inlineStr">
         <is>
-          <t>T7</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="C524" t="inlineStr">
@@ -9268,12 +9268,12 @@
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>Adriana</t>
+          <t>Madeline R</t>
         </is>
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>T7</t>
+          <t>T6</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -9285,7 +9285,7 @@
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>Aideen V</t>
+          <t>Hannah</t>
         </is>
       </c>
       <c r="B526" t="inlineStr">
@@ -9302,12 +9302,12 @@
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>Susan</t>
+          <t>Thomas J</t>
         </is>
       </c>
       <c r="B527" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C527" t="inlineStr">
@@ -9319,12 +9319,12 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>Sarah J</t>
+          <t>Morgan</t>
         </is>
       </c>
       <c r="B528" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C528" t="inlineStr">
@@ -9336,12 +9336,12 @@
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>Alison R</t>
+          <t>Sadie G</t>
         </is>
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C529" t="inlineStr">
@@ -9353,12 +9353,12 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>Tal</t>
+          <t>Elaine</t>
         </is>
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C530" t="inlineStr">
@@ -9370,12 +9370,12 @@
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>Gabriella</t>
+          <t>Grace A</t>
         </is>
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -9387,12 +9387,12 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>Doyle W</t>
+          <t>Cindy</t>
         </is>
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -9404,12 +9404,12 @@
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>Elise</t>
+          <t>Jaime E</t>
         </is>
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>T8</t>
+          <t>T7</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -9421,7 +9421,7 @@
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Arielle L</t>
         </is>
       </c>
       <c r="B534" t="inlineStr">
@@ -9438,12 +9438,12 @@
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>Yawen</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>T9</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="C535" t="inlineStr">
@@ -9455,12 +9455,12 @@
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>Bijan J</t>
+          <t>Justin L</t>
         </is>
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>T9</t>
+          <t>T8</t>
         </is>
       </c>
       <c r="C536" t="inlineStr">
@@ -9472,15 +9472,151 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>Elaine</t>
+          <t>Jordan</t>
         </is>
       </c>
       <c r="B537" t="inlineStr">
         <is>
+          <t>T8</t>
+        </is>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>Week 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Elise</t>
+        </is>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>T8</t>
+        </is>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>Week 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Ikechukwu D</t>
+        </is>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>T8</t>
+        </is>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>Week 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Gwendolyn V</t>
+        </is>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>T8</t>
+        </is>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>Week 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Aideen V</t>
+        </is>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>T8</t>
+        </is>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>Week 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Elizabeth M</t>
+        </is>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
           <t>T9</t>
         </is>
       </c>
-      <c r="C537" t="inlineStr">
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>Week 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Kaethe</t>
+        </is>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>T9</t>
+        </is>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>Week 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Chintushig</t>
+        </is>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>T9</t>
+        </is>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>Week 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Anthony W</t>
+        </is>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>T9</t>
+        </is>
+      </c>
+      <c r="C545" t="inlineStr">
         <is>
           <t>Week 8</t>
         </is>
